--- a/NZ/input/population.xlsx
+++ b/NZ/input/population.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\CovidABM\NZ\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6CBC07C0-5887-4E48-A784-EE674A584E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9376FBE7-3D27-4A6D-807B-9E12DE28BACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,24 +108,6 @@
     <t>0-9 Maori</t>
   </si>
   <si>
-    <t>10-15  </t>
-  </si>
-  <si>
-    <t>10-15  Maori</t>
-  </si>
-  <si>
-    <t>16-29</t>
-  </si>
-  <si>
-    <t>16-29 Essential Worker</t>
-  </si>
-  <si>
-    <t>16-29 Maori</t>
-  </si>
-  <si>
-    <t>16-29 Maori Essential Worker</t>
-  </si>
-  <si>
     <t>30-39 </t>
   </si>
   <si>
@@ -190,16 +183,34 @@
     <t>Vaccination</t>
   </si>
   <si>
-    <t>Kids 10+</t>
-  </si>
-  <si>
     <t>Kids 5+</t>
+  </si>
+  <si>
+    <t>Kids 12+</t>
+  </si>
+  <si>
+    <t>10-17</t>
+  </si>
+  <si>
+    <t>10-17  Maori</t>
+  </si>
+  <si>
+    <t>18-29</t>
+  </si>
+  <si>
+    <t>18-29 Essential Worker</t>
+  </si>
+  <si>
+    <t>18-29 Maori</t>
+  </si>
+  <si>
+    <t>18-29 Maori Essential Worker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,8 +688,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1033,11 +1045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="U33" sqref="A1:U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1168,7 @@
       </c>
       <c r="N2">
         <f>ROUND(A2*$X$2*$X$4/2,0)</f>
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1180,10 +1192,10 @@
         <v>23</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="X2">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1227,8 +1239,8 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N5" si="0">ROUND(A3*$X$2*$X$4/2,0)</f>
-        <v>42</v>
+        <f t="shared" ref="N3" si="0">ROUND(A3*$X$2*$X$4/2,0)</f>
+        <v>29</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -1252,7 +1264,7 @@
         <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1299,8 +1311,8 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <f>ROUND(A4*$X$2*$X$3,0)</f>
-        <v>135</v>
+        <f>ROUND(A4*$X$2*($X$3*0.75+$X$4*0.25),0)</f>
+        <v>92</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1320,11 +1332,11 @@
       <c r="T4" t="s">
         <v>22</v>
       </c>
-      <c r="U4" t="s">
-        <v>25</v>
+      <c r="U4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -1371,8 +1383,8 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <f>ROUND(A5*$X$2*$X$3,0)</f>
-        <v>48</v>
+        <f>ROUND(A5*$X$2*($X$3*0.75+$X$4*0.25),0)</f>
+        <v>33</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -1393,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="U5" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1438,7 +1450,7 @@
       </c>
       <c r="N6">
         <f>ROUND(A6*$X$2,0)</f>
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -1459,7 +1471,7 @@
         <v>22</v>
       </c>
       <c r="U6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1504,7 +1516,7 @@
       </c>
       <c r="N7">
         <f t="shared" ref="N7:N33" si="1">ROUND(A7*$X$2,0)</f>
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1525,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="U7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1570,7 +1582,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -1591,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="U8" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1636,7 +1648,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -1657,7 +1669,7 @@
         <v>22</v>
       </c>
       <c r="U9" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1702,7 +1714,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -1723,7 +1735,7 @@
         <v>22</v>
       </c>
       <c r="U10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1768,7 +1780,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -1789,7 +1801,7 @@
         <v>22</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1834,7 +1846,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -1855,7 +1867,7 @@
         <v>22</v>
       </c>
       <c r="U12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1900,7 +1912,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -1921,7 +1933,7 @@
         <v>22</v>
       </c>
       <c r="U13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1966,7 +1978,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -1987,7 +1999,7 @@
         <v>22</v>
       </c>
       <c r="U14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2032,7 +2044,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -2053,7 +2065,7 @@
         <v>22</v>
       </c>
       <c r="U15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2098,7 +2110,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -2119,7 +2131,7 @@
         <v>22</v>
       </c>
       <c r="U16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2164,7 +2176,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -2185,7 +2197,7 @@
         <v>22</v>
       </c>
       <c r="U17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2230,7 +2242,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -2251,7 +2263,7 @@
         <v>22</v>
       </c>
       <c r="U18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2296,7 +2308,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -2317,7 +2329,7 @@
         <v>22</v>
       </c>
       <c r="U19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2362,7 +2374,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O20">
         <v>2</v>
@@ -2383,7 +2395,7 @@
         <v>22</v>
       </c>
       <c r="U20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2428,7 +2440,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -2449,7 +2461,7 @@
         <v>22</v>
       </c>
       <c r="U21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2494,7 +2506,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="O22">
         <v>2</v>
@@ -2515,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="U22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2560,7 +2572,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O23">
         <v>2</v>
@@ -2581,7 +2593,7 @@
         <v>22</v>
       </c>
       <c r="U23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2626,7 +2638,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -2647,7 +2659,7 @@
         <v>22</v>
       </c>
       <c r="U24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2692,7 +2704,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <v>2</v>
@@ -2713,7 +2725,7 @@
         <v>22</v>
       </c>
       <c r="U25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2758,7 +2770,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="O26">
         <v>2</v>
@@ -2779,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="U26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2824,7 +2836,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -2845,7 +2857,7 @@
         <v>22</v>
       </c>
       <c r="U27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2890,7 +2902,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2911,7 +2923,7 @@
         <v>22</v>
       </c>
       <c r="U28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -2977,7 +2989,7 @@
         <v>22</v>
       </c>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3022,7 +3034,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -3043,7 +3055,7 @@
         <v>22</v>
       </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3088,7 +3100,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -3109,7 +3121,7 @@
         <v>22</v>
       </c>
       <c r="U31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -3154,7 +3166,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32">
         <v>2</v>
@@ -3175,7 +3187,7 @@
         <v>22</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3220,7 +3232,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O33">
         <v>2</v>
@@ -3241,7 +3253,7 @@
         <v>22</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
